--- a/data/pca/factorExposure/factorExposure_2012-09-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002337724314886459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001836385291168062</v>
+      </c>
+      <c r="C2">
+        <v>0.02857884425722217</v>
+      </c>
+      <c r="D2">
+        <v>-0.004941459140424233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002593719195086442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00678597692461334</v>
+      </c>
+      <c r="C4">
+        <v>0.08314856003502898</v>
+      </c>
+      <c r="D4">
+        <v>-0.06934792174569661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00519790055077095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0144927795889543</v>
+      </c>
+      <c r="C6">
+        <v>0.1181504206385688</v>
+      </c>
+      <c r="D6">
+        <v>-0.02277417837929503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0008245290647718408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00490809528217047</v>
+      </c>
+      <c r="C7">
+        <v>0.0587490019650624</v>
+      </c>
+      <c r="D7">
+        <v>-0.03362153030126162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001981133881380502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006107264825961752</v>
+      </c>
+      <c r="C8">
+        <v>0.0353400077583738</v>
+      </c>
+      <c r="D8">
+        <v>-0.04095983985912469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0005410690126329684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005463432496281048</v>
+      </c>
+      <c r="C9">
+        <v>0.07125785052994531</v>
+      </c>
+      <c r="D9">
+        <v>-0.07532487327759847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001684682548381395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.003313002528578255</v>
+      </c>
+      <c r="C10">
+        <v>0.05123397265920432</v>
+      </c>
+      <c r="D10">
+        <v>0.1853822153296049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001066824003876194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005867190744943346</v>
+      </c>
+      <c r="C11">
+        <v>0.0797345080227089</v>
+      </c>
+      <c r="D11">
+        <v>-0.06551177264868425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006101807875928282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004460563333399163</v>
+      </c>
+      <c r="C12">
+        <v>0.06470757413674456</v>
+      </c>
+      <c r="D12">
+        <v>-0.04986468824652974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002184547385321348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.00879972237945947</v>
+      </c>
+      <c r="C13">
+        <v>0.06988461377787791</v>
+      </c>
+      <c r="D13">
+        <v>-0.05808548765658285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001785653879213485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006894778083152537</v>
+      </c>
+      <c r="C14">
+        <v>0.04255803756528614</v>
+      </c>
+      <c r="D14">
+        <v>-0.01242749508255839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00146443238793843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005942668719048619</v>
+      </c>
+      <c r="C15">
+        <v>0.03985581444423995</v>
+      </c>
+      <c r="D15">
+        <v>-0.03046297100204019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0001918808825103533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005224525669767933</v>
+      </c>
+      <c r="C16">
+        <v>0.06444163101167875</v>
+      </c>
+      <c r="D16">
+        <v>-0.05716941670519096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002272839789673123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008563905474402016</v>
+      </c>
+      <c r="C20">
+        <v>0.06333215204585231</v>
+      </c>
+      <c r="D20">
+        <v>-0.05368177043205275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005340764221449514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009356438555690006</v>
+      </c>
+      <c r="C21">
+        <v>0.01992462550863117</v>
+      </c>
+      <c r="D21">
+        <v>-0.0414916683987377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01937348899771109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006856779709412898</v>
+      </c>
+      <c r="C22">
+        <v>0.08711396338649371</v>
+      </c>
+      <c r="D22">
+        <v>-0.1239559716026908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0190185006006405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006549840837987403</v>
+      </c>
+      <c r="C23">
+        <v>0.08749265448039595</v>
+      </c>
+      <c r="D23">
+        <v>-0.125068830551546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001405421118105998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005743639376749832</v>
+      </c>
+      <c r="C24">
+        <v>0.07645885478158132</v>
+      </c>
+      <c r="D24">
+        <v>-0.06730295780845703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002998274715762292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003227642204357174</v>
+      </c>
+      <c r="C25">
+        <v>0.07774524666060917</v>
+      </c>
+      <c r="D25">
+        <v>-0.06638929611527176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001635002302595355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003496800966038799</v>
+      </c>
+      <c r="C26">
+        <v>0.03853468066662097</v>
+      </c>
+      <c r="D26">
+        <v>-0.02448004122657781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006953907015963121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00232686821040979</v>
+      </c>
+      <c r="C28">
+        <v>0.1033171423320529</v>
+      </c>
+      <c r="D28">
+        <v>0.3251104723591816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001281039110826172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002744769785925021</v>
+      </c>
+      <c r="C29">
+        <v>0.04755827570558784</v>
+      </c>
+      <c r="D29">
+        <v>-0.01143037496765964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002734531859652311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009271848294834323</v>
+      </c>
+      <c r="C30">
+        <v>0.1411051505684954</v>
+      </c>
+      <c r="D30">
+        <v>-0.1111078280689129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002137516470237656</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006351784770273338</v>
+      </c>
+      <c r="C31">
+        <v>0.04334441634259675</v>
+      </c>
+      <c r="D31">
+        <v>-0.03281309417358393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-9.013367853046178e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.0037698776939663</v>
+      </c>
+      <c r="C32">
+        <v>0.04023053115605182</v>
+      </c>
+      <c r="D32">
+        <v>-0.02062879808930171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0002685586022728478</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008883072202630533</v>
+      </c>
+      <c r="C33">
+        <v>0.08914013641526143</v>
+      </c>
+      <c r="D33">
+        <v>-0.06517406893475795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001558088310601428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004140329975684978</v>
+      </c>
+      <c r="C34">
+        <v>0.05758646740675818</v>
+      </c>
+      <c r="D34">
+        <v>-0.0590283151218681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002206098302606516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005319077566614539</v>
+      </c>
+      <c r="C35">
+        <v>0.04049544277968976</v>
+      </c>
+      <c r="D35">
+        <v>-0.01805225409828417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00447679125924685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001325689404956998</v>
+      </c>
+      <c r="C36">
+        <v>0.02466951316684957</v>
+      </c>
+      <c r="D36">
+        <v>-0.02526532635173206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002666477498632231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008972431063354333</v>
+      </c>
+      <c r="C38">
+        <v>0.04077977594072175</v>
+      </c>
+      <c r="D38">
+        <v>-0.01116955348237032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01108761806006693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001849204898905615</v>
+      </c>
+      <c r="C39">
+        <v>0.1108572387073424</v>
+      </c>
+      <c r="D39">
+        <v>-0.08041928364845082</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003178354398048688</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00333956786965107</v>
+      </c>
+      <c r="C40">
+        <v>0.09020727508397662</v>
+      </c>
+      <c r="D40">
+        <v>-0.01652499836582752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002343996639380811</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007451120626420342</v>
+      </c>
+      <c r="C41">
+        <v>0.04076921406033449</v>
+      </c>
+      <c r="D41">
+        <v>-0.0409857434077503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00177876972473479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003761821201665948</v>
+      </c>
+      <c r="C43">
+        <v>0.05402280578273078</v>
+      </c>
+      <c r="D43">
+        <v>-0.02914503962120617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006599853924479353</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002667174955016032</v>
+      </c>
+      <c r="C44">
+        <v>0.1036132026614714</v>
+      </c>
+      <c r="D44">
+        <v>-0.06911099840118816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001081183866628877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001705658688158703</v>
+      </c>
+      <c r="C46">
+        <v>0.0325647148116547</v>
+      </c>
+      <c r="D46">
+        <v>-0.03413397923793245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000700078411040777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002402825869748627</v>
+      </c>
+      <c r="C47">
+        <v>0.03509758960992536</v>
+      </c>
+      <c r="D47">
+        <v>-0.02296814389335622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004052683292823174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007041613888435439</v>
+      </c>
+      <c r="C48">
+        <v>0.03191950335359768</v>
+      </c>
+      <c r="D48">
+        <v>-0.0346350683282589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00357168678558687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01645428371966869</v>
+      </c>
+      <c r="C49">
+        <v>0.1880242714230946</v>
+      </c>
+      <c r="D49">
+        <v>-0.007184620549428609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009703549467901948</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003583538025746159</v>
+      </c>
+      <c r="C50">
+        <v>0.04302374405452657</v>
+      </c>
+      <c r="D50">
+        <v>-0.04112929136613159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0004019208581880071</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004355040166130825</v>
+      </c>
+      <c r="C51">
+        <v>0.02648449822112102</v>
+      </c>
+      <c r="D51">
+        <v>-0.02368724352179647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008114225538359407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02159468597170804</v>
+      </c>
+      <c r="C53">
+        <v>0.1712949157856249</v>
+      </c>
+      <c r="D53">
+        <v>-0.01883131335232976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003964715694085378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009481719112291018</v>
+      </c>
+      <c r="C54">
+        <v>0.05638997743379067</v>
+      </c>
+      <c r="D54">
+        <v>-0.04246718980774603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001384454189227194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009894630539472694</v>
+      </c>
+      <c r="C55">
+        <v>0.1083533314122142</v>
+      </c>
+      <c r="D55">
+        <v>-0.03640421878613827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008476903610963047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02070391340523241</v>
+      </c>
+      <c r="C56">
+        <v>0.1750784368990418</v>
+      </c>
+      <c r="D56">
+        <v>-0.01349606109786983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003691874697188703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01898785290454898</v>
+      </c>
+      <c r="C58">
+        <v>0.1046892862407489</v>
+      </c>
+      <c r="D58">
+        <v>-0.0666545260146707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002583938181571965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009547870840551715</v>
+      </c>
+      <c r="C59">
+        <v>0.1676356231673254</v>
+      </c>
+      <c r="D59">
+        <v>0.3438797756138666</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.006617236157757763</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02456052801258987</v>
+      </c>
+      <c r="C60">
+        <v>0.226278774213374</v>
+      </c>
+      <c r="D60">
+        <v>-0.01684684246551776</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01024946163852701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002059368775770393</v>
+      </c>
+      <c r="C61">
+        <v>0.09370012816829988</v>
+      </c>
+      <c r="D61">
+        <v>-0.05916331808793907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1479967542759706</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1507399389258319</v>
+      </c>
+      <c r="C62">
+        <v>0.1006897383055452</v>
+      </c>
+      <c r="D62">
+        <v>-0.01731766118055733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001582622842130944</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006681603332705894</v>
+      </c>
+      <c r="C63">
+        <v>0.05329349119247946</v>
+      </c>
+      <c r="D63">
+        <v>-0.03428658714032583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.009698153589098648</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01666618120403092</v>
+      </c>
+      <c r="C64">
+        <v>0.1054614706831354</v>
+      </c>
+      <c r="D64">
+        <v>-0.05610869394505174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00844542290933201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01766415633821439</v>
+      </c>
+      <c r="C65">
+        <v>0.1206417117162226</v>
+      </c>
+      <c r="D65">
+        <v>-0.02822679806215314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001220843025691245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01289548957086328</v>
+      </c>
+      <c r="C66">
+        <v>0.158538159933494</v>
+      </c>
+      <c r="D66">
+        <v>-0.1123956151473098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005988789314398671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01543065373772784</v>
+      </c>
+      <c r="C67">
+        <v>0.07329468134093811</v>
+      </c>
+      <c r="D67">
+        <v>-0.02126780751834154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004502659182170525</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0002788794474092567</v>
+      </c>
+      <c r="C68">
+        <v>0.08551357039038421</v>
+      </c>
+      <c r="D68">
+        <v>0.2580184355389382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0003531960436813471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006410803535057457</v>
+      </c>
+      <c r="C69">
+        <v>0.05251258558881669</v>
+      </c>
+      <c r="D69">
+        <v>-0.03810183477137254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001294473899862877</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002452173676377816</v>
+      </c>
+      <c r="C70">
+        <v>0.007870214948091767</v>
+      </c>
+      <c r="D70">
+        <v>0.0005981549538448358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001160474718269827</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004878350024648066</v>
+      </c>
+      <c r="C71">
+        <v>0.08964404140767557</v>
+      </c>
+      <c r="D71">
+        <v>0.3014603537475203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003906931073928967</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01730916645294091</v>
+      </c>
+      <c r="C72">
+        <v>0.1580589251235426</v>
+      </c>
+      <c r="D72">
+        <v>-0.007929258845847676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009494849170670129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0310068111668796</v>
+      </c>
+      <c r="C73">
+        <v>0.2829463059068504</v>
+      </c>
+      <c r="D73">
+        <v>-0.05073856703815804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005213875000908184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002012603831596971</v>
+      </c>
+      <c r="C74">
+        <v>0.1019338934838075</v>
+      </c>
+      <c r="D74">
+        <v>-0.03352472080815803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001020252105251529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01097999326030362</v>
+      </c>
+      <c r="C75">
+        <v>0.1210836345833236</v>
+      </c>
+      <c r="D75">
+        <v>-0.02791144656742198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0114265008734371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02238699297819087</v>
+      </c>
+      <c r="C76">
+        <v>0.1463749220131542</v>
+      </c>
+      <c r="D76">
+        <v>-0.058003288102363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007281902554771897</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02063009333479595</v>
+      </c>
+      <c r="C77">
+        <v>0.1137639893726612</v>
+      </c>
+      <c r="D77">
+        <v>-0.05636444555350656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005780242707065974</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01452129185994043</v>
+      </c>
+      <c r="C78">
+        <v>0.09865982680240358</v>
+      </c>
+      <c r="D78">
+        <v>-0.08123402664018781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02738181768700687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03901408981548814</v>
+      </c>
+      <c r="C79">
+        <v>0.1565431812514957</v>
+      </c>
+      <c r="D79">
+        <v>-0.03187319751421187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006340194887163054</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009506667675255723</v>
+      </c>
+      <c r="C80">
+        <v>0.03977454806268069</v>
+      </c>
+      <c r="D80">
+        <v>-0.03117631124926444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004830797721199453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01611666477721992</v>
+      </c>
+      <c r="C81">
+        <v>0.1297671738187191</v>
+      </c>
+      <c r="D81">
+        <v>-0.03864529538898428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007321442154554453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01941358120664201</v>
+      </c>
+      <c r="C82">
+        <v>0.1365503940479213</v>
+      </c>
+      <c r="D82">
+        <v>-0.03691717414025018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004159756263753017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01226092911681798</v>
+      </c>
+      <c r="C83">
+        <v>0.0637927462310741</v>
+      </c>
+      <c r="D83">
+        <v>-0.0456095270403971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004360738110440204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006452506417783451</v>
+      </c>
+      <c r="C84">
+        <v>0.03419708988958729</v>
+      </c>
+      <c r="D84">
+        <v>-0.01250086978127063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01838280190211664</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.029065348853532</v>
+      </c>
+      <c r="C85">
+        <v>0.123254306468744</v>
+      </c>
+      <c r="D85">
+        <v>-0.0393687271293873</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002854863577941168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003864940253044115</v>
+      </c>
+      <c r="C86">
+        <v>0.04982993507236506</v>
+      </c>
+      <c r="D86">
+        <v>-0.02853480835789446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001122789476623221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01121713129897843</v>
+      </c>
+      <c r="C87">
+        <v>0.1273381598528841</v>
+      </c>
+      <c r="D87">
+        <v>-0.07620520320923324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008941887239168056</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003071652727832223</v>
+      </c>
+      <c r="C88">
+        <v>0.06269858311509634</v>
+      </c>
+      <c r="D88">
+        <v>-0.03165172086219268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01152190467174432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002985395102763336</v>
+      </c>
+      <c r="C89">
+        <v>0.1357864948766016</v>
+      </c>
+      <c r="D89">
+        <v>0.3133620103264048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002294427587466466</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005598951520255817</v>
+      </c>
+      <c r="C90">
+        <v>0.1182690517866579</v>
+      </c>
+      <c r="D90">
+        <v>0.3131256135119477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.00224348930376172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0110281898140871</v>
+      </c>
+      <c r="C91">
+        <v>0.09938596137919112</v>
+      </c>
+      <c r="D91">
+        <v>-0.02821963000728273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005888331247091054</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004022823219245946</v>
+      </c>
+      <c r="C92">
+        <v>0.1314293278511329</v>
+      </c>
+      <c r="D92">
+        <v>0.3275992315557462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001992625597975947</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003332243782138895</v>
+      </c>
+      <c r="C93">
+        <v>0.1043748066958513</v>
+      </c>
+      <c r="D93">
+        <v>0.2993174976709103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01004964475186072</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02204397600218565</v>
+      </c>
+      <c r="C94">
+        <v>0.1418068874044229</v>
+      </c>
+      <c r="D94">
+        <v>-0.05423009710967982</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006615302507192424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01606826706511082</v>
+      </c>
+      <c r="C95">
+        <v>0.1206335995205322</v>
+      </c>
+      <c r="D95">
+        <v>-0.06765510784688096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01656488303693203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03680710280342987</v>
+      </c>
+      <c r="C97">
+        <v>0.2264294219183303</v>
+      </c>
+      <c r="D97">
+        <v>0.001788128377843583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01144700394237315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0382186039053169</v>
+      </c>
+      <c r="C98">
+        <v>0.2614324335492204</v>
+      </c>
+      <c r="D98">
+        <v>-0.02621813006873111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9869044732632166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9811478138962325</v>
+      </c>
+      <c r="C99">
+        <v>-0.1195182615924874</v>
+      </c>
+      <c r="D99">
+        <v>0.02487695050176788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001265058275251556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002723499933650818</v>
+      </c>
+      <c r="C101">
+        <v>0.04766491023617877</v>
+      </c>
+      <c r="D101">
+        <v>-0.01191141451398764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
